--- a/instructor/questionsTemplate.xlsx
+++ b/instructor/questionsTemplate.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\online_exam_system-master - Copy\instructor\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21828E59-AD47-4776-8010-43552061689D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Book1" sheetId="2" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>Question</t>
   </si>
@@ -102,13 +108,19 @@
     <t>What is the….?</t>
   </si>
   <si>
-    <t>Write First Question Here…</t>
+    <t>pointer Refer to Value</t>
+  </si>
+  <si>
+    <t>oop refer to object orinted programming</t>
+  </si>
+  <si>
+    <t>html refer to hyper text refrance ?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -200,8 +212,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -225,14 +237,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -270,7 +285,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -342,7 +357,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -515,11 +530,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,6 +779,52 @@
       <c r="A14" t="s">
         <v>28</v>
       </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -776,15 +837,15 @@
     <mergeCell ref="E2:H7"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C1048576 C1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C1048576 C1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
       <formula2>50</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D1048576 D6 D1:D2 D4">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D1048576 D6 D1:D2 D4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>1</formula1>
       <formula2>3</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>$B$2:$B$7</formula1>
     </dataValidation>
   </dataValidations>
